--- a/dev-other-results.xlsx
+++ b/dev-other-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Corpus\Libri-recogNsynth\dev-other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B457FB-721C-46C3-A4EC-ED9548545F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957335A-8368-4309-8226-1A0A09771AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="915" yWindow="1695" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,22 @@
   </si>
   <si>
     <t>PCC btw MOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tacotron2 Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,8 +182,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -185,12 +202,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -214,11 +237,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,7 +419,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.62</c:v>
@@ -510,7 +538,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4.0103999999999997</c:v>
@@ -642,7 +670,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -933,7 +961,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.62</c:v>
@@ -1067,7 +1095,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4.0103999999999997</c:v>
@@ -1120,7 +1148,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1199,9 +1227,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.7000000000000002E-2</c:v>
@@ -1334,7 +1362,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2605,7 +2633,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6073205"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -2898,10 +2926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2910,14 +2938,16 @@
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2940,22 +2970,25 @@
         <v>27</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2968,78 +3001,84 @@
       <c r="D2" s="1">
         <v>2.3148148148148149E-4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>2.62</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>4.0103999999999997</v>
       </c>
-      <c r="G2">
-        <v>3.3415999999999899</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="4">
+        <v>3.34185</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.911</v>
+      </c>
+      <c r="I2" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I13" si="0">_xlfn.RANK.AVG(E2, $E$2:$E$13)</f>
+      <c r="J2">
+        <f>_xlfn.RANK.AVG(E2, $E$2:$E$13)</f>
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>_xlfn.RANK.AVG(F2, F$2:F$13)</f>
         <v>3</v>
       </c>
-      <c r="K2">
-        <f>_xlfn.RANK.AVG(G2, G$2:G$13)</f>
+      <c r="L2">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G2,G2:G13)</f>
         <v>4</v>
       </c>
-      <c r="L2">
-        <f>_xlfn.RANK.AVG(H2, H$2:H$13, 1)</f>
+      <c r="M2">
+        <f>_xlfn.RANK.AVG(I2, I$2:I$13, 1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>2.5840000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>4.1235999999999997</v>
       </c>
-      <c r="G3">
-        <v>3.19579999999999</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="8">
+        <v>3.1954500000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="I3" s="8">
         <v>2.4E-2</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
+      <c r="J3" s="6">
+        <f>_xlfn.RANK.AVG(E3, $E$2:$E$13)</f>
         <v>12</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="6">
         <f>_xlfn.RANK.AVG(F3, F$2:$F$13)</f>
         <v>1</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K13" si="1">_xlfn.RANK.AVG(G3, G$2:G$13)</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="0" xml:space="preserve"> _xlfn.RANK.AVG(G3,G3:G14)</f>
         <v>9</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L13" si="2">_xlfn.RANK.AVG(H3, H$2:H$13, 1)</f>
+      <c r="M3" s="6">
+        <f>_xlfn.RANK.AVG(I3, I$2:I$13, 1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3052,36 +3091,39 @@
       <c r="D4" s="1">
         <v>9.2592592592592588E-5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>2.5950000000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>3.9437999999999902</v>
       </c>
-      <c r="G4">
-        <v>3.2870499999999998</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="4">
+        <v>3.2871000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="I4" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="J4">
+        <f>_xlfn.RANK.AVG(E4, $E$2:$E$13)</f>
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>_xlfn.RANK.AVG(F4, F$2:$F$13)</f>
         <v>4</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f>_xlfn.RANK.AVG(I4, I$2:I$13, 1)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -3094,288 +3136,309 @@
       <c r="D5" s="3">
         <v>3.2407407407407406E-4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>3.0219999999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>3.6916000000000002</v>
       </c>
-      <c r="G5">
-        <v>3.0774499999999998</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="4">
+        <v>3.0778500000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="I5" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <f>_xlfn.RANK.AVG(E5, $E$2:$E$13)</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>_xlfn.RANK.AVG(F5, F$2:$F$13)</f>
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f>_xlfn.RANK.AVG(I5, I$2:I$13, 1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1574074074074075E-4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.5447500000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.1590500000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J6">
+        <f>_xlfn.RANK.AVG(E6, $E$2:$E$13)</f>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f>_xlfn.RANK.AVG(F6, F$2:$F$13)</f>
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f>_xlfn.RANK.AVG(I6, I$2:I$13, 1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.5369999999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.86919999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.2880500000000001</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="I7" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <f>_xlfn.RANK.AVG(E7, $E$2:$E$13)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <f>_xlfn.RANK.AVG(F7, F$2:$F$13)</f>
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="6">
+        <f>_xlfn.RANK.AVG(I7, I$2:I$13, 1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.1003499999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.3431999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.RANK.AVG(E8, $E$2:$E$13)</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>_xlfn.RANK.AVG(F8, F$2:$F$13)</f>
+        <v>2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J5">
-        <f>_xlfn.RANK.AVG(F5, F$2:$F$13)</f>
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="M8">
+        <f>_xlfn.RANK.AVG(I8, I$2:I$13, 1)</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.9470000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.8835499999999898</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.13815</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.919</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <f>_xlfn.RANK.AVG(E9, $E$2:$E$13)</f>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f>_xlfn.RANK.AVG(F9, F$2:$F$13)</f>
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.1574074074074075E-4</v>
-      </c>
-      <c r="E6">
-        <v>2.9129999999999998</v>
-      </c>
-      <c r="F6">
-        <v>3.5447500000000001</v>
-      </c>
-      <c r="G6">
-        <v>3.1591999999999998</v>
-      </c>
-      <c r="H6">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="I6">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J6">
-        <f>_xlfn.RANK.AVG(F6, F$2:$F$13)</f>
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
+      <c r="M9">
+        <f>_xlfn.RANK.AVG(I9, I$2:I$13, 1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.7870370370370373E-5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.8365499999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>_xlfn.RANK.AVG(E10, $E$2:$E$13)</f>
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f>_xlfn.RANK.AVG(F10, F$2:$F$13)</f>
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>_xlfn.RANK.AVG(I10, I$2:I$13, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.7361111111111112E-4</v>
-      </c>
-      <c r="E7">
-        <v>3.5369999999999999</v>
-      </c>
-      <c r="F7">
-        <v>3.86919999999999</v>
-      </c>
-      <c r="G7">
-        <v>3.2877999999999998</v>
-      </c>
-      <c r="H7">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="I7">
+      <c r="D11" s="3">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.778</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.93359999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3.3539500000000002</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.111</v>
+      </c>
+      <c r="J11">
+        <f>_xlfn.RANK.AVG(E11, $E$2:$E$13)</f>
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <f>_xlfn.RANK.AVG(F11, F$2:$F$13)</f>
+        <v>5</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7">
-        <f>_xlfn.RANK.AVG(F7, F$2:$F$13)</f>
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="M11">
+        <f>_xlfn.RANK.AVG(I11, I$2:I$13, 1)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.1003499999999997</v>
-      </c>
-      <c r="G8">
-        <v>3.343</v>
-      </c>
-      <c r="H8">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <f>_xlfn.RANK.AVG(F8, F$2:$F$13)</f>
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.6203703703703703E-4</v>
-      </c>
-      <c r="E9">
-        <v>2.9470000000000001</v>
-      </c>
-      <c r="F9">
-        <v>3.8835499999999898</v>
-      </c>
-      <c r="G9">
-        <v>3.1381000000000001</v>
-      </c>
-      <c r="H9">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <f>_xlfn.RANK.AVG(F9, F$2:$F$13)</f>
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5.7870370370370373E-5</v>
-      </c>
-      <c r="E10">
-        <v>2.8279999999999998</v>
-      </c>
-      <c r="F10">
-        <v>3.8365499999999999</v>
-      </c>
-      <c r="G10">
-        <v>3.3359000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <f>_xlfn.RANK.AVG(F10, F$2:$F$13)</f>
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.3888888888888889E-4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.778</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.93359999999999</v>
-      </c>
-      <c r="G11">
-        <v>3.3546499999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.111</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <f>_xlfn.RANK.AVG(F11, F$2:$F$13)</f>
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3388,36 +3451,39 @@
       <c r="D12" s="1">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>2.7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>3.6159500000000002</v>
       </c>
-      <c r="G12">
-        <v>3.3440999999999899</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="4">
+        <v>3.3440500000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.9180000000000001</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.69599999999999995</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="J12">
+        <f>_xlfn.RANK.AVG(E12, $E$2:$E$13)</f>
         <v>9</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>_xlfn.RANK.AVG(F12, F$2:$F$13)</f>
         <v>11</v>
       </c>
-      <c r="K12">
-        <f>_xlfn.RANK.AVG(G12, G$2:G$13)</f>
-        <v>2</v>
-      </c>
       <c r="L12">
-        <f>_xlfn.RANK.AVG(H12, H$2:H$13, 1)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>_xlfn.RANK.AVG(I12, I$2:I$13, 1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3430,111 +3496,142 @@
       <c r="D13" s="1">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>2.9910000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>3.88309999999999</v>
       </c>
-      <c r="G13">
-        <v>3.2969999999999899</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="4">
+        <v>3.2971499999999998</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.04</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="J13">
+        <f>_xlfn.RANK.AVG(E13, $E$2:$E$13)</f>
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>_xlfn.RANK.AVG(F13, F$2:$F$13)</f>
         <v>7</v>
       </c>
-      <c r="K13">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>_xlfn.RANK.AVG(I13, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:F14" si="1">AVERAGE(E2:E13)</f>
+        <v>2.8949166666666666</v>
+      </c>
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.8697041666666627</v>
+      </c>
+      <c r="G14" s="8">
+        <f>AVERAGE(G2:G13)</f>
+        <v>3.263570833333334</v>
+      </c>
+      <c r="H14" s="8">
+        <f>AVERAGE(H2:H13)</f>
+        <v>2.8802500000000002</v>
+      </c>
+      <c r="I14" s="8">
+        <f>AVERAGE(I2:I13)</f>
+        <v>0.11366666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <f>AVERAGE(E2:E13)</f>
-        <v>2.8949166666666666</v>
-      </c>
-      <c r="F14">
-        <f>AVERAGE(F2:F13)</f>
-        <v>3.8697041666666627</v>
-      </c>
-      <c r="G14">
-        <f>AVERAGE(G2:G13)</f>
-        <v>3.2634708333333298</v>
-      </c>
-      <c r="H14">
-        <f>AVERAGE(H2:H13)</f>
-        <v>0.11366666666666665</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4">
+        <f>MAX(E2:E13)</f>
+        <v>3.5369999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4">
+        <f>MIN(E2:E13)</f>
+        <v>2.5840000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="I17">
-        <f>CORREL(I2:I13, $L$2:$L$13)</f>
+      <c r="J17" s="4">
+        <f>CORREL(J2:J13, $M$2:$M$13)</f>
         <v>-0.18181818181818185</v>
       </c>
-      <c r="J17">
-        <f>CORREL(J2:J13, $L$2:$L$13)</f>
+      <c r="K17" s="4">
+        <f>CORREL(K2:K13, $M$2:$M$13)</f>
         <v>0.43356643356643365</v>
       </c>
-      <c r="K17">
-        <f>CORREL(K2:K13, $L$2:$L$13)</f>
-        <v>-0.30769230769230776</v>
+      <c r="L17" s="4">
+        <f>CORREL(L2:L13, $M$2:$M$13)</f>
+        <v>-0.16132691081104045</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="I18">
-        <f>PEARSON(E2:E13, $H$2:$H$13)</f>
+      <c r="J18" s="4">
+        <f>PEARSON(E2:E13, $I$2:$I$13)</f>
         <v>-0.15584845770382366</v>
       </c>
-      <c r="J18">
-        <f>PEARSON(F2:F13, $H$2:$H$13)</f>
+      <c r="K18" s="4">
+        <f>PEARSON(F2:F13, $I$2:$I$13)</f>
         <v>-0.4918398192288726</v>
       </c>
-      <c r="K18">
-        <f>PEARSON(G2:G13, $H$2:$H$13)</f>
-        <v>0.26005036766580369</v>
+      <c r="L18" s="4">
+        <f>PEARSON(G2:G13, $I$2:$I$13)</f>
+        <v>0.2590804707628504</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="J19">
-        <f>CORREL(I2:I13, J2:J13)</f>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <f>CORREL(J2:J13, K2:K13)</f>
         <v>-0.3286713286713287</v>
       </c>
-      <c r="K19">
-        <f>CORREL(I2:I13, K2:K13)</f>
-        <v>-0.15384615384615388</v>
+      <c r="L19" s="4">
+        <f>CORREL(J2:J13, L2:L13)</f>
+        <v>2.7543618918958113E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <f>PEARSON(E2:E13,F2:F13)</f>
         <v>-8.4476945186604618E-2</v>
       </c>
-      <c r="K20">
+      <c r="L20" s="4">
         <f>PEARSON(E2:E13,G2:G13)</f>
-        <v>-8.7285476929907152E-2</v>
+        <v>-8.6136050956398938E-2</v>
       </c>
     </row>
   </sheetData>
